--- a/ThietkeTongthe.xlsx
+++ b/ThietkeTongthe.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tongquan" sheetId="1" r:id="rId1"/>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ThietkeTongthe.xlsx
+++ b/ThietkeTongthe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tongquan" sheetId="1" r:id="rId1"/>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
